--- a/4_testing/neighborcf/filmtrust/2020.12.03/analyze-filmtrust-user.xlsx
+++ b/4_testing/neighborcf/filmtrust/2020.12.03/analyze-filmtrust-user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todeploy\working\projects\sim\working\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB818F2-4CA2-4DA0-8870-6FD6CF1C4EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C50201-3B31-49D4-A3FE-5AB218447606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
   <si>
     <t>Cosine</t>
   </si>
@@ -784,10 +784,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -798,35 +838,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NHSM</c:v>
+                  <c:v>Cosine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Radar!$B$1:$F$1</c:f>
@@ -857,26 +884,26 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66333749999999991</c:v>
+                  <c:v>0.66081249999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76778749999999996</c:v>
+                  <c:v>0.76386249999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85234999999999994</c:v>
+                  <c:v>0.85129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89416249999999997</c:v>
+                  <c:v>0.89390000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20785000000000009</c:v>
+                  <c:v>0.20453750000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9612-4E34-802F-5E7AC1FB5805}"/>
+              <c16:uniqueId val="{00000000-5E90-4D42-B02A-FB1B71A94D8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,35 +916,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TAJ</c:v>
+                  <c:v>TA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Radar!$B$1:$F$1</c:f>
@@ -948,26 +962,26 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6610125</c:v>
+                  <c:v>0.66051249999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76139999999999997</c:v>
+                  <c:v>0.76039999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84824999999999995</c:v>
+                  <c:v>0.84820000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.89388749999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.205125</c:v>
+                  <c:v>0.20462499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9612-4E34-802F-5E7AC1FB5805}"/>
+              <c16:uniqueId val="{00000001-5E90-4D42-B02A-FB1B71A94D8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -980,35 +994,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SMD</c:v>
+                  <c:v>TAJ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Radar!$B$1:$F$1</c:f>
@@ -1039,26 +1040,26 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66272500000000001</c:v>
+                  <c:v>0.6610125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77361250000000004</c:v>
+                  <c:v>0.76139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81468750000000001</c:v>
+                  <c:v>0.84824999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97301249999999995</c:v>
+                  <c:v>0.89388749999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16048750000000012</c:v>
+                  <c:v>0.205125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9612-4E34-802F-5E7AC1FB5805}"/>
+              <c16:uniqueId val="{00000002-5E90-4D42-B02A-FB1B71A94D8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1070,33 +1071,23 @@
               <c:f>Radar!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMD</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Radar!$B$1:$F$1</c:f>
@@ -1124,14 +1115,29 @@
             <c:numRef>
               <c:f>Radar!$B$5:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66272500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77361250000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81468750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97301249999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16048750000000012</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9612-4E34-802F-5E7AC1FB5805}"/>
+              <c16:uniqueId val="{00000003-5E90-4D42-B02A-FB1B71A94D8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1143,11 +1149,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343702192"/>
-        <c:axId val="343699896"/>
-      </c:radarChart>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="376896536"/>
+        <c:axId val="376897848"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="343702192"/>
+        <c:axId val="376896536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,14 +1168,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1190,7 +1193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343699896"/>
+        <c:crossAx val="376897848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343699896"/>
+        <c:axId val="376897848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343702192"/>
+        <c:crossAx val="376896536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1265,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2467,7 +2470,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2490,17 +2493,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2984,7 +2976,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3019,13 +3011,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3070,16 +3062,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62582BE-B481-4F56-8657-3A936BC4F4BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E03A60-3E5A-4A89-9501-6402FD117201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3396,7 +3386,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5490,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5669,10 +5659,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4529679-CF5D-45C4-9515-E0E767A1086E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5696,75 +5686,100 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>MAE!J6</f>
-        <v>0.66333749999999991</v>
+        <f>MAE!J2</f>
+        <v>0.66081249999999991</v>
       </c>
       <c r="C2" s="1">
-        <f>MSE!J6</f>
-        <v>0.76778749999999996</v>
+        <f>MSE!J2</f>
+        <v>0.76386249999999989</v>
       </c>
       <c r="D2" s="1">
-        <f>1-('R'!J6)</f>
-        <v>0.85234999999999994</v>
+        <f>1-('R'!J2)</f>
+        <v>0.85129999999999995</v>
       </c>
       <c r="E2" s="1">
-        <f>1-(Precision!J6)</f>
-        <v>0.89416249999999997</v>
+        <f>1-(Precision!J2)</f>
+        <v>0.89390000000000003</v>
       </c>
       <c r="F2" s="1">
-        <f>1-(Recall!J6)</f>
-        <v>0.20785000000000009</v>
+        <f>1-(Recall!J2)</f>
+        <v>0.20453750000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <f>MAE!J8</f>
+        <v>0.66051249999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MSE!J8</f>
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <f>1-('R'!J8)</f>
+        <v>0.84820000000000007</v>
+      </c>
+      <c r="E3" s="1">
+        <f>1-(Precision!J8)</f>
+        <v>0.89388749999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <f>1-(Recall!J8)</f>
+        <v>0.20462499999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <f>MAE!J9</f>
         <v>0.6610125</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>MSE!J9</f>
         <v>0.76139999999999997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <f>1-('R'!J9)</f>
         <v>0.84824999999999995</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <f>1-(Precision!J9)</f>
         <v>0.89388749999999995</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <f>1-(Recall!J9)</f>
         <v>0.205125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>MAE!J10</f>
         <v>0.66272500000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>MSE!J10</f>
         <v>0.77361250000000004</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>1-('R'!J10)</f>
         <v>0.81468750000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <f>1-(Precision!J10)</f>
         <v>0.97301249999999995</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <f>1-(Recall!J10)</f>
         <v>0.16048750000000012</v>
       </c>
